--- a/main/ig/FRMedicationAdministrationLMCDAFHIR.xlsx
+++ b/main/ig/FRMedicationAdministrationLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Mapping Métier/CDA/FHIR : "Traitement"</t>
+    <t>Mapping Métier/CDA/FHIR : "Traitement déjà administré"</t>
   </si>
   <si>
     <t>Status</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medication-administration-document</t>
+  </si>
+  <si>
+    <t>FRMedicationAdministrationDocument</t>
   </si>
   <si>
     <t>FRMedicationAdministrationDocument.identifier</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -849,7 +852,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -862,7 +865,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -875,7 +878,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -888,7 +891,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -901,7 +904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -914,7 +917,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -927,7 +930,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -940,7 +943,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -953,7 +956,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -966,7 +969,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -979,7 +982,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -992,7 +995,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1005,7 +1008,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1018,7 +1021,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -1031,7 +1034,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -1044,7 +1047,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -1057,7 +1060,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -1067,6 +1070,19 @@
         <v>85</v>
       </c>
       <c r="E19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/main/ig/FRMedicationAdministrationLMCDAFHIR.xlsx
+++ b/main/ig/FRMedicationAdministrationLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRMedicationAdministrationLMCDAFHIR.xlsx
+++ b/main/ig/FRMedicationAdministrationLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
